--- a/teaching/traditional_assets/database/data/jamaica/jamaica_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_investments_asset_management.xlsx
@@ -590,47 +590,41 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.5855</v>
-      </c>
-      <c r="E2">
-        <v>0.218</v>
-      </c>
       <c r="G2">
-        <v>0.3475574184905905</v>
+        <v>0.3790477636106051</v>
       </c>
       <c r="H2">
-        <v>0.3475574184905905</v>
+        <v>0.3790477636106051</v>
       </c>
       <c r="I2">
-        <v>0.3118402340137622</v>
+        <v>0.1777727180732645</v>
       </c>
       <c r="J2">
-        <v>0.2619587836951745</v>
+        <v>0.1535198872220369</v>
       </c>
       <c r="K2">
-        <v>7.841</v>
+        <v>7.297</v>
       </c>
       <c r="L2">
-        <v>0.1694142557742584</v>
+        <v>0.1846033191661607</v>
       </c>
       <c r="M2">
-        <v>7.335000000000001</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="N2">
-        <v>0.2010690789473684</v>
+        <v>0.04864909939959973</v>
       </c>
       <c r="O2">
-        <v>0.9354674148705523</v>
+        <v>1.199259969850623</v>
       </c>
       <c r="P2">
-        <v>7.335000000000001</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.2010690789473684</v>
+        <v>0.04864909939959973</v>
       </c>
       <c r="R2">
-        <v>0.9354674148705523</v>
+        <v>1.199259969850623</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.149</v>
+        <v>125.881</v>
       </c>
       <c r="V2">
-        <v>0.1137335526315789</v>
+        <v>0.6998054258394485</v>
       </c>
       <c r="W2">
-        <v>0.6922513765418807</v>
+        <v>0.7381380519462157</v>
       </c>
       <c r="X2">
-        <v>0.08431392783653296</v>
+        <v>0.07054579870886214</v>
       </c>
       <c r="Y2">
-        <v>0.6079374487053477</v>
+        <v>0.6675922532373536</v>
       </c>
       <c r="Z2">
-        <v>1.423370013292657</v>
+        <v>1.589129211224572</v>
       </c>
       <c r="AA2">
-        <v>0.2862997658079625</v>
+        <v>-0.1266461201988023</v>
       </c>
       <c r="AB2">
-        <v>0.08146337095299561</v>
+        <v>0.06825741611347161</v>
       </c>
       <c r="AC2">
-        <v>0.1996344432853984</v>
+        <v>-0.193366653933624</v>
       </c>
       <c r="AD2">
-        <v>21.461</v>
+        <v>151.958</v>
       </c>
       <c r="AE2">
-        <v>0.2654922457052046</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>21.72649224570521</v>
+        <v>151.958</v>
       </c>
       <c r="AG2">
-        <v>17.5774922457052</v>
+        <v>26.077</v>
       </c>
       <c r="AH2">
-        <v>0.373265788874407</v>
+        <v>0.457928266202183</v>
       </c>
       <c r="AI2">
-        <v>0.5803404806901201</v>
+        <v>0.5057377158299718</v>
       </c>
       <c r="AJ2">
-        <v>0.3251629240552074</v>
+        <v>0.1266138077365664</v>
       </c>
       <c r="AK2">
-        <v>0.5280350974133713</v>
+        <v>0.1493639274401874</v>
       </c>
       <c r="AL2">
-        <v>8.853</v>
+        <v>11.033</v>
       </c>
       <c r="AM2">
-        <v>8.853</v>
+        <v>11.014</v>
       </c>
       <c r="AN2">
-        <v>1.328032178217821</v>
+        <v>12.3623494956069</v>
       </c>
       <c r="AO2">
-        <v>1.617078956286005</v>
+        <v>0.6369074594398622</v>
       </c>
       <c r="AP2">
-        <v>1.087716104313441</v>
+        <v>2.121461112918972</v>
       </c>
       <c r="AQ2">
-        <v>1.617078956286005</v>
+        <v>0.6380061739604139</v>
       </c>
     </row>
     <row r="3">
@@ -725,40 +719,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.4038461538461539</v>
+        <v>0.3729216152019002</v>
       </c>
       <c r="H3">
-        <v>0.4038461538461539</v>
+        <v>0.3729216152019002</v>
       </c>
       <c r="I3">
-        <v>0.3681947488187249</v>
+        <v>0.2731591448931116</v>
       </c>
       <c r="J3">
-        <v>0.316523721043324</v>
+        <v>0.247209026128266</v>
       </c>
       <c r="K3">
-        <v>6.97</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>0.1675480769230769</v>
+        <v>0.2612826603325415</v>
       </c>
       <c r="M3">
-        <v>5.07</v>
+        <v>8.08</v>
       </c>
       <c r="N3">
-        <v>3.335526315789474</v>
+        <v>0.04969249692496925</v>
       </c>
       <c r="O3">
-        <v>0.727403156384505</v>
+        <v>0.7345454545454545</v>
       </c>
       <c r="P3">
-        <v>5.07</v>
+        <v>8.08</v>
       </c>
       <c r="Q3">
-        <v>3.335526315789474</v>
+        <v>0.04969249692496925</v>
       </c>
       <c r="R3">
-        <v>0.727403156384505</v>
+        <v>0.7345454545454545</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +761,58 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>125.1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.7693726937269373</v>
       </c>
       <c r="X3">
-        <v>0.08522081604623635</v>
-      </c>
-      <c r="Z3">
-        <v>156.6900754087994</v>
-      </c>
-      <c r="AA3">
-        <v>49.59612571895223</v>
+        <v>0.1028660256873606</v>
       </c>
       <c r="AB3">
-        <v>0.08191798901453839</v>
-      </c>
-      <c r="AC3">
-        <v>49.5142077299377</v>
+        <v>0.08176835819041203</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>150.4</v>
       </c>
       <c r="AE3">
-        <v>0.2654922457052046</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.2654922457052046</v>
+        <v>150.4</v>
       </c>
       <c r="AG3">
-        <v>0.2654922457052046</v>
+        <v>25.30000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.1486941465827228</v>
+        <v>0.4805111821086262</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.5375268048606148</v>
       </c>
       <c r="AJ3">
-        <v>0.1486941465827228</v>
+        <v>0.1346460883448644</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.1635423400129283</v>
       </c>
       <c r="AL3">
-        <v>8.76</v>
+        <v>10.8</v>
       </c>
       <c r="AM3">
-        <v>8.76</v>
+        <v>10.8</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>11.48091603053435</v>
       </c>
       <c r="AO3">
-        <v>1.735159817351598</v>
+        <v>1.064814814814815</v>
       </c>
       <c r="AP3">
-        <v>0.01564479939335324</v>
+        <v>1.931297709923665</v>
       </c>
       <c r="AQ3">
-        <v>1.735159817351598</v>
+        <v>1.064814814814815</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +823,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SSL Venture Capital Jamaica Limited (JMSE:SSLVC)</t>
+          <t>1834 Investments Limited (JMSE:1834)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -846,116 +831,113 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.8340000000000001</v>
-      </c>
       <c r="G4">
-        <v>-0.1789915966386555</v>
+        <v>-1.610062893081761</v>
       </c>
       <c r="H4">
-        <v>-0.1789915966386555</v>
+        <v>-1.610062893081761</v>
       </c>
       <c r="I4">
-        <v>-0.2054621848739496</v>
+        <v>-2.327044025157233</v>
       </c>
       <c r="J4">
-        <v>-0.2054621848739496</v>
+        <v>-1.27823545043848</v>
       </c>
       <c r="K4">
-        <v>-0.349</v>
+        <v>0.078</v>
       </c>
       <c r="L4">
-        <v>-0.1466386554621849</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="M4">
+        <v>0.671</v>
+      </c>
+      <c r="N4">
+        <v>0.08192918192918194</v>
+      </c>
+      <c r="O4">
+        <v>8.602564102564104</v>
+      </c>
+      <c r="P4">
+        <v>0.671</v>
+      </c>
+      <c r="Q4">
+        <v>0.08192918192918194</v>
+      </c>
+      <c r="R4">
+        <v>8.602564102564104</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.75</v>
+      </c>
+      <c r="V4">
+        <v>0.09157509157509158</v>
+      </c>
+      <c r="W4">
+        <v>0.007289719626168225</v>
+      </c>
+      <c r="X4">
+        <v>0.06454268619014099</v>
+      </c>
+      <c r="Y4">
+        <v>-0.05725296656397276</v>
+      </c>
+      <c r="Z4">
+        <v>0.01730141458106638</v>
+      </c>
+      <c r="AA4">
+        <v>-0.02211528146025226</v>
+      </c>
+      <c r="AB4">
+        <v>0.06454268619014099</v>
+      </c>
+      <c r="AC4">
+        <v>-0.08665796765039324</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-0.75</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.1008064516129032</v>
+      </c>
+      <c r="AK4">
+        <v>-0.07772020725388601</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>-0.005</v>
+      </c>
+      <c r="AN4">
         <v>-0</v>
       </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.029</v>
-      </c>
-      <c r="V4">
-        <v>0.008381502890173411</v>
-      </c>
-      <c r="W4">
-        <v>1.183050847457627</v>
-      </c>
-      <c r="X4">
-        <v>0.08340703962682959</v>
-      </c>
-      <c r="Y4">
-        <v>1.099643807830798</v>
-      </c>
-      <c r="Z4">
-        <v>-2.786885245901639</v>
-      </c>
-      <c r="AA4">
-        <v>0.572599531615925</v>
-      </c>
-      <c r="AB4">
-        <v>0.08100875289145283</v>
-      </c>
-      <c r="AC4">
-        <v>0.4915907787244722</v>
-      </c>
-      <c r="AD4">
-        <v>0.461</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.461</v>
-      </c>
-      <c r="AG4">
-        <v>0.432</v>
-      </c>
-      <c r="AH4">
-        <v>0.1175720479469523</v>
-      </c>
-      <c r="AI4">
-        <v>-1.188144329896907</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1109969167523124</v>
-      </c>
-      <c r="AK4">
-        <v>-1.035971223021583</v>
-      </c>
-      <c r="AL4">
-        <v>0.082</v>
-      </c>
-      <c r="AM4">
-        <v>0.082</v>
-      </c>
-      <c r="AN4">
-        <v>-1.022172949002217</v>
-      </c>
-      <c r="AO4">
-        <v>-5.963414634146341</v>
-      </c>
       <c r="AP4">
-        <v>-0.9578713968957872</v>
+        <v>2.124645892351275</v>
       </c>
       <c r="AQ4">
-        <v>-5.963414634146341</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eppley Limited (JMSE:EPLY)</t>
+          <t>QWI Investments Limited (JMSE:QWI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -974,110 +956,107 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.337</v>
-      </c>
-      <c r="E5">
-        <v>0.218</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.087087087087087</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.087087087087087</v>
       </c>
       <c r="K5">
-        <v>1.11</v>
+        <v>-2.81</v>
       </c>
       <c r="L5">
-        <v>0.5285714285714286</v>
+        <v>0.8438438438438438</v>
       </c>
       <c r="M5">
-        <v>0.665</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.03228155339805825</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.5990990990990991</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.665</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.03228155339805825</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.5990990990990991</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>2.61</v>
+        <v>0.007</v>
       </c>
       <c r="V5">
-        <v>0.1266990291262136</v>
+        <v>0.0009370816599732263</v>
       </c>
       <c r="W5">
-        <v>0.2014519056261343</v>
+        <v>-0.202158273381295</v>
       </c>
       <c r="X5">
-        <v>0.1222043780317849</v>
+        <v>0.07225225785723899</v>
       </c>
       <c r="Y5">
-        <v>0.07924752759434946</v>
+        <v>-0.274410531238534</v>
       </c>
       <c r="Z5">
-        <v>0.1014492753623189</v>
+        <v>-0.2126572578070119</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-0.2311769589373523</v>
       </c>
       <c r="AB5">
-        <v>0.09232189215367548</v>
+        <v>0.06889838127950233</v>
       </c>
       <c r="AC5">
-        <v>-0.09232189215367548</v>
+        <v>-0.3000753402168547</v>
       </c>
       <c r="AD5">
-        <v>21</v>
+        <v>1.39</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>21</v>
+        <v>1.39</v>
       </c>
       <c r="AG5">
-        <v>18.39</v>
+        <v>1.383</v>
       </c>
       <c r="AH5">
-        <v>0.5048076923076923</v>
+        <v>0.1568848758465011</v>
       </c>
       <c r="AI5">
-        <v>0.7818317200297841</v>
+        <v>0.1169049621530698</v>
       </c>
       <c r="AJ5">
-        <v>0.4716593998461144</v>
+        <v>0.156218231108099</v>
       </c>
       <c r="AK5">
-        <v>0.7583505154639175</v>
+        <v>0.1163847513254229</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.127</v>
+      </c>
+      <c r="AO5">
+        <v>-25.67375886524823</v>
+      </c>
+      <c r="AQ5">
+        <v>-28.50393700787402</v>
       </c>
     </row>
     <row r="6">
@@ -1088,7 +1067,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1834 Investments Limited (JMSE:1834)</t>
+          <t>SSL Venture Capital Jamaica Limited (JMSE:SSLVC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1097,115 +1076,112 @@
         </is>
       </c>
       <c r="G6">
-        <v>-1.41871921182266</v>
+        <v>-0.7696160267111853</v>
       </c>
       <c r="H6">
-        <v>-1.41871921182266</v>
+        <v>-0.7696160267111853</v>
       </c>
       <c r="I6">
-        <v>-1.945812807881773</v>
+        <v>-0.8063439065108514</v>
       </c>
       <c r="J6">
-        <v>-1.004879853835658</v>
+        <v>-0.8063439065108514</v>
       </c>
       <c r="K6">
-        <v>0.11</v>
+        <v>-0.971</v>
       </c>
       <c r="L6">
-        <v>0.541871921182266</v>
+        <v>-1.621035058430718</v>
       </c>
       <c r="M6">
-        <v>1.6</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.1467889908256881</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>14.54545454545455</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.6</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.1467889908256881</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>14.54545454545455</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>1.51</v>
+        <v>0.024</v>
       </c>
       <c r="V6">
-        <v>0.1385321100917431</v>
+        <v>0.01481481481481481</v>
       </c>
       <c r="W6">
-        <v>0.008527131782945736</v>
+        <v>1.468986384266263</v>
       </c>
       <c r="X6">
-        <v>0.07757387035638978</v>
+        <v>0.0688393395604853</v>
       </c>
       <c r="Y6">
-        <v>-0.06904673857344404</v>
+        <v>1.400147044705778</v>
       </c>
       <c r="Z6">
-        <v>0.01636436920596534</v>
+        <v>23.95999999999998</v>
       </c>
       <c r="AA6">
-        <v>-0.01644422493580319</v>
+        <v>-19.31999999999998</v>
       </c>
       <c r="AB6">
-        <v>0.07757387035638978</v>
+        <v>0.0676164509474409</v>
       </c>
       <c r="AC6">
-        <v>-0.09401809529219296</v>
+        <v>-19.38761645094742</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="AG6">
-        <v>-1.51</v>
+        <v>0.144</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>-0.1035758323057953</v>
       </c>
       <c r="AJ6">
-        <v>-0.1608093716719915</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="AK6">
-        <v>-0.1643090315560392</v>
+        <v>-0.08748481166464157</v>
       </c>
       <c r="AL6">
-        <v>0.011</v>
+        <v>0.092</v>
       </c>
       <c r="AM6">
-        <v>0.011</v>
+        <v>0.092</v>
       </c>
       <c r="AN6">
-        <v>-0</v>
+        <v>-0.3692307692307693</v>
       </c>
       <c r="AO6">
-        <v>-35.90909090909091</v>
+        <v>-5.25</v>
       </c>
       <c r="AP6">
-        <v>4.206128133704736</v>
+        <v>-0.3164835164835165</v>
       </c>
       <c r="AQ6">
-        <v>-35.90909090909091</v>
+        <v>-5.25</v>
       </c>
     </row>
   </sheetData>
